--- a/data/horarios.martes.raw.xlsx
+++ b/data/horarios.martes.raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58595CA-A845-4F4F-8E2E-C14471BF5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B27DD1-BAAD-4AC3-80C0-54686EF0125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F394EB2-928F-4170-8A67-56A1D3CAD4CB}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Lazarte Aranguren, Luis Antonio</t>
   </si>
   <si>
-    <t>C3S20114</t>
-  </si>
-  <si>
     <t>COMPLIANCE: NORMATIVAS, SISTEMAS Y RESPONSABILIDADES</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Yemsi Rober, Sanchez Soto</t>
+  </si>
+  <si>
+    <t>C3S20814</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,10 +862,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -891,10 +891,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -920,10 +920,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1109,24 +1109,24 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
         <v>62</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
